--- a/similarities/split_global/harmonic_similarity_timestamps_213.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_213.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'F#:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:18.200000', '0:00:23.520000')]</t>
+          <t>('0:01:19.040000', '0:01:31.180000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:16.759569', '0:00:31.190770')]</t>
+          <t>('0:01:17.720000', '0:01:28')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=18.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-226#t=16.759569']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:10.130000', '0:00:14.450000')]</t>
+          <t>('0:01:05.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:42.150000', '0:01:07.840000')]</t>
+          <t>('0:00:17.160000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=17.16</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>schubert-winterreise_102</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:17.560000', '0:00:38.640000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:42.150000', '0:01:07.840000')]</t>
+          <t>('0:00:16.840000', '0:00:19.460000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=17.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
+          <t>['A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:36.760000', '0:01:43.240000'), ('0:02:09.060000', '0:02:14.200000')]</t>
+          <t>('0:00:09.336000', '0:00:13.342000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:41.500000', '0:01:48.300000'), ('0:00:17.120000', '0:00:24.900000')]</t>
+          <t>('0:00:57.700000', '0:01:05.360000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=96.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=101.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=17.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=57.7</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:23.300000', '0:00:29.360000'), ('0:00:07.620000', '0:00:11.120000')]</t>
+          <t>('0:00:10.260000', '0:00:15.940000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:01.129708', '0:00:06.125260'), ('0:00:13.648526', '0:00:21.125350')]</t>
+          <t>('0:01:25.580000', '0:01:34.240000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=7.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=13.648526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:35.140000', '0:00:42.320000')]</t>
+          <t>('0:00:49.480000', '0:01:02.360000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:34.400000', '0:01:44.480000')]</t>
+          <t>('0:00:00.240000', '0:00:07.820000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=35.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=49.48</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=94.4']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=0.24</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:00.660000', '0:02:02.740000')]</t>
+          <t>('0:00:00.240000', '0:00:09.280000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+          <t>('0:00:30.050000', '0:00:38.220000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=120.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=70.38']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C', 'F:min', 'C', 'F:min']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:14.520000', '0:01:17.020000')]</t>
+          <t>('0:00:40.820000', '0:00:43.620000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:10.598321', '0:00:14.743083')]</t>
+          <t>('0:01:24', '0:01:30.840000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=74.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=10.598321']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
+          <t>('0:00:06.920000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:19.000294', '0:00:29.309954')]</t>
+          <t>('0:00:15.940000', '0:00:24.900000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=6.92</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=19.000294']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=15.94</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>schubert-winterreise_154</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:00:21.780000', '0:00:25.300000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:03.220000', '0:02:06.880000')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>isophonics_227</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_47</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:maj6']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Ab:min7', 'Db:7', 'Gb:maj6']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:53.250000', '0:00:56.900000')]</t>
+          <t>('0:00:20.045192', '0:00:25.141972')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:09.240000', '0:01:13.720000')]</t>
+          <t>('0:00:23.980000', '0:00:31.920000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=53.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=20.045192</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-47#t=69.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=23.98</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:maj', 'B:maj'], ['B:maj', 'F#:9', 'B:maj/F#']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['C', 'G:9', 'C']]</t>
+          <t>['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:10.200000', '0:00:12.320000'), ('0:00:58.080000', '0:01:02.440000')]</t>
+          <t>('0:04:13', '0:04:20.200000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:20.801000', '0:00:27.165000'), ('0:00:01.511000', '0:00:14.477000')]</t>
+          <t>('0:03:56.780000', '0:04:09.140000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=10.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=253.0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=1.511']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=236.78</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+          <t>('0:00:42.440000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:01:23.100000', '0:01:30.020000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:01.240000', '0:00:09.940000')]</t>
+          <t>('0:00:19.130000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:45.460000', '0:00:58.080000')]</t>
+          <t>('0:00:15.880000', '0:00:17.370000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=1.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=45.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=15.88</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
